--- a/world-happeness-report-20160710/world-happeness-report-20160710.xlsx
+++ b/world-happeness-report-20160710/world-happeness-report-20160710.xlsx
@@ -14,10 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
-    <t>key</t>
+    <t>value</t>
   </si>
   <si>
     <t>amt</t>
@@ -35,7 +38,7 @@
     <t>7.526</t>
   </si>
   <si>
-    <t>value</t>
+    <t>headline</t>
   </si>
   <si>
     <t>7.592</t>
@@ -68,6 +71,9 @@
     <t>7.333</t>
   </si>
   <si>
+    <t>The Headline For This Dot Chart</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -119,10 +125,19 @@
     <t>New Zealand</t>
   </si>
   <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>The Headline For This Dot Chart</t>
+    <t>subhed</t>
+  </si>
+  <si>
+    <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t>&amp;mdash; Lighter bars indicate margin of error.</t>
+  </si>
+  <si>
+    <t>source</t>
   </si>
   <si>
     <t>Australia</t>
@@ -131,9 +146,15 @@
     <t>Sweden</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>Israel</t>
   </si>
   <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -152,15 +173,9 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>subhed</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
-    <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
@@ -182,34 +197,19 @@
     <t>Panama</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>&amp;mdash; Lighter bars indicate margin of error.</t>
-  </si>
-  <si>
     <t>Czech Republic</t>
   </si>
   <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
     <t>Malta</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
     <t>Colombia</t>
@@ -604,13 +604,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="14.0"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14.0"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -632,49 +632,44 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -688,15 +683,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -707,474 +705,474 @@
   </cols>
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" ht="33.0" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" ht="33.0" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" ht="33.0" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-    </row>
-    <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-    </row>
-    <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="11"/>
@@ -5103,2220 +5101,2223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9">
         <v>7.334</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>7.404</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>7.264</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="9">
         <v>7.313</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>7.385</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>7.241</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9">
         <v>7.291</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>7.355</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>7.227</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="9">
         <v>7.267</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>7.335</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>7.199</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="9">
         <v>7.119</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>7.193</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>7.045</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="9">
         <v>7.104</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>7.188</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>7.02</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="9">
         <v>7.087</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>7.175</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>6.999</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9">
         <v>7.039</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>7.284</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>6.794</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="9">
         <v>6.994</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>7.058</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>6.93</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9">
         <v>6.952</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>7.029</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>6.875</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9">
         <v>6.929</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>6.997</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>6.861</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="9">
         <v>6.907</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>6.978</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>6.836</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="9">
         <v>6.871</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>6.938</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>6.804</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="9">
         <v>6.778</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>6.876</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>6.68</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="9">
         <v>6.739</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>6.804</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>6.674</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="A24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="9">
         <v>6.725</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>6.803</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9">
         <v>6.647</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="9">
         <v>6.705</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>6.795</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9">
         <v>6.615</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="A26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="9">
         <v>6.701</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
         <v>6.801</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <v>6.601</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
+      <c r="A27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="9">
         <v>6.65</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
         <v>6.74</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9">
         <v>6.56</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="A28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="9">
         <v>6.596</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>6.677</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <v>6.515</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="A29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="9">
         <v>6.573</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>6.652</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <v>6.494</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="A30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="9">
         <v>6.545</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9">
         <v>6.634</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>6.456</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="A31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="9">
         <v>6.488</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="9">
         <v>6.567</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9">
         <v>6.409</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>6.481</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="9">
         <v>6.578</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <v>6.384</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>6.478</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="9">
         <v>6.559</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <v>6.397</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="9">
         <v>6.474</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="9">
         <v>6.552</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9">
         <v>6.396</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>6.379</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="9">
         <v>6.471</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9">
         <v>6.287</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>6.379</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="9">
         <v>6.453</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>6.305</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>6.375</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="9">
         <v>6.572</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <v>6.178</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="9">
         <v>6.361</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="9">
         <v>6.434</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="9">
         <v>6.288</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="9">
         <v>6.355</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="9">
         <v>6.483</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="9">
         <v>6.227</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="9">
         <v>6.324</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="9">
         <v>6.435</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="9">
         <v>6.213</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="9">
         <v>6.269</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="9">
         <v>6.465</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="9">
         <v>6.073</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="9">
         <v>6.239</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="9">
         <v>6.324</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="9">
         <v>6.154</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="9">
         <v>6.218</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="9">
         <v>6.308</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="9">
         <v>6.128</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="9">
         <v>6.168</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="9">
         <v>6.386</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="9">
         <v>5.95</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="9">
         <v>6.084</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="9">
         <v>6.195</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="9">
         <v>5.973</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="9">
         <v>6.078</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="9">
         <v>6.16</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="9">
         <v>5.996</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="9">
         <v>6.068</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="9">
         <v>6.169</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="9">
         <v>5.967</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="9">
         <v>6.005</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="9">
         <v>6.089</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="9">
         <v>5.921</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="9">
         <v>5.992</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="9">
         <v>6.107</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="9">
         <v>5.877</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="9">
         <v>5.987</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="9">
         <v>6.078</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="9">
         <v>5.896</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="9">
         <v>5.977</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="9">
         <v>6.056</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="9">
         <v>5.898</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="9">
         <v>5.976</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="9">
         <v>6.072</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="9">
         <v>5.88</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="9">
         <v>5.956</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="9">
         <v>6.202</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="9">
         <v>5.71</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="9">
         <v>5.921</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="9">
         <v>5.992</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="9">
         <v>5.85</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="9">
         <v>5.919</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="9">
         <v>6.001</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="9">
         <v>5.837</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="9">
         <v>5.897</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="9">
         <v>5.971</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="9">
         <v>5.823</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="9">
         <v>5.856</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="9">
         <v>5.923</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="9">
         <v>5.789</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="9">
         <v>5.835</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="9">
         <v>5.921</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="9">
         <v>5.749</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="9">
         <v>5.835</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="9">
         <v>5.923</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="9">
         <v>5.747</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="9">
         <v>5.822</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="9">
         <v>5.904</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="9">
         <v>5.74</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="9">
         <v>5.813</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="9">
         <v>5.892</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="9">
         <v>5.734</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="9">
         <v>5.802</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="9">
         <v>5.881</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="9">
         <v>5.723</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="9">
         <v>5.771</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="9">
         <v>5.872</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="9">
         <v>5.67</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="9">
         <v>5.768</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="9">
         <v>5.853</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="9">
         <v>5.683</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="9">
         <v>5.743</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="9">
         <v>5.839</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="9">
         <v>5.647</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="9">
         <v>5.658</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="9">
         <v>5.736</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="9">
         <v>5.58</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="9">
         <v>5.648</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="9">
         <v>5.789</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="9">
         <v>5.507</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="9">
         <v>5.615</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="9">
         <v>5.824</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="9">
         <v>5.406</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="9">
         <v>5.56</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="9">
         <v>5.634</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="9">
         <v>5.486</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="9">
         <v>5.546</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="9">
         <v>5.65</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="9">
         <v>5.442</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="9">
         <v>5.538</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="9">
         <v>5.623</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="9">
         <v>5.453</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="9">
         <v>5.528</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="9">
         <v>5.629</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="9">
         <v>5.427</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="9">
         <v>5.517</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="9">
         <v>5.597</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="9">
         <v>5.437</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="9">
         <v>5.51</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="9">
         <v>5.705</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="9">
         <v>5.315</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="9">
         <v>5.488</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="9">
         <v>5.574</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="9">
         <v>5.402</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="9">
         <v>5.458</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="9">
         <v>5.554</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="9">
         <v>5.362</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="9">
         <v>5.44</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="9">
         <v>5.559</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="9">
         <v>5.321</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="9">
         <v>5.401</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="9">
         <v>5.494</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="9">
         <v>5.308</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="9">
         <v>5.389</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="9">
         <v>5.483</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="9">
         <v>5.295</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="9">
         <v>5.314</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="9">
         <v>5.391</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="9">
         <v>5.237</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="9">
         <v>5.303</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="9">
         <v>5.419</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="9">
         <v>5.187</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="9">
         <v>5.291</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="9">
         <v>5.356</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="9">
         <v>5.226</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="9">
         <v>5.279</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="9">
         <v>5.398</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="9">
         <v>5.16</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="9">
         <v>5.245</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="9">
         <v>5.291</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="9">
         <v>5.199</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="9">
         <v>5.196</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="9">
         <v>5.254</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="9">
         <v>5.138</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="9">
         <v>5.185</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="9">
         <v>5.267</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="9">
         <v>5.103</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="9">
         <v>5.177</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="9">
         <v>5.271</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="9">
         <v>5.083</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="9">
         <v>5.163</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="9">
         <v>5.263</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="9">
         <v>5.063</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="9">
         <v>5.161</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="9">
         <v>5.267</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="9">
         <v>5.055</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="9">
         <v>5.155</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="9">
         <v>5.273</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="9">
         <v>5.037</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="9">
         <v>5.151</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="9">
         <v>5.244</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="9">
         <v>5.058</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="9">
         <v>5.145</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="9">
         <v>5.234</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="9">
         <v>5.056</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="9">
         <v>5.132</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="9">
         <v>5.226</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="9">
         <v>5.038</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="9">
         <v>5.129</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="9">
         <v>5.227</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="9">
         <v>5.031</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="9">
         <v>5.123</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="9">
         <v>5.216</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="9">
         <v>5.03</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="9">
         <v>5.121</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="9">
         <v>5.225</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="9">
         <v>5.017</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="9">
         <v>5.061</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="9">
         <v>5.131</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="9">
         <v>4.991</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="9">
         <v>5.057</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="9">
         <v>5.18</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="9">
         <v>4.934</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="9">
         <v>5.045</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="9">
         <v>5.125</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="9">
         <v>4.965</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="9">
         <v>5.033</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="9">
         <v>5.131</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="9">
         <v>4.935</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="9">
         <v>4.996</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="9">
         <v>5.069</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="9">
         <v>4.923</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="9">
         <v>4.907</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="9">
         <v>4.976</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="9">
         <v>4.838</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="9">
         <v>4.876</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="9">
         <v>5.01</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="9">
         <v>4.742</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="9">
         <v>4.875</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="9">
         <v>5.0</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="9">
         <v>4.75</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="9">
         <v>4.871</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="9">
         <v>4.992</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="9">
         <v>4.75</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="9">
         <v>4.813</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="9">
         <v>4.923</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="9">
         <v>4.703</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="9">
         <v>4.795</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="9">
         <v>4.945</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="9">
         <v>4.645</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="9">
         <v>4.793</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="9">
         <v>4.888</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="9">
         <v>4.698</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="9">
         <v>4.754</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="9">
         <v>4.859</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="9">
         <v>4.649</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="9">
         <v>4.655</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="9">
         <v>4.764</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="9">
         <v>4.546</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="9">
         <v>4.643</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="9">
         <v>4.726</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="9">
         <v>4.56</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="9">
         <v>4.635</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="9">
         <v>4.765</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="9">
         <v>4.505</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="9">
         <v>4.575</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="9">
         <v>4.704</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="9">
         <v>4.446</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="9">
         <v>4.574</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="9">
         <v>4.774</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="9">
         <v>4.374</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="9">
         <v>4.513</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="9">
         <v>4.609</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="9">
         <v>4.417</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="9">
         <v>4.508</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="9">
         <v>4.591</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="9">
         <v>4.425</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="9">
         <v>4.459</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="9">
         <v>4.547</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="9">
         <v>4.371</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="9">
         <v>4.415</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="9">
         <v>4.508</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="9">
         <v>4.322</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="9">
         <v>4.404</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="9">
         <v>4.457</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="9">
         <v>4.351</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="9">
         <v>4.395</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="9">
         <v>4.463</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="9">
         <v>4.327</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="9">
         <v>4.362</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="9">
         <v>4.465</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="9">
         <v>4.259</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="9">
         <v>4.36</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="9">
         <v>4.454</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="9">
         <v>4.266</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="9">
         <v>4.356</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="9">
         <v>4.453</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="9">
         <v>4.259</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="9">
         <v>4.324</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="9">
         <v>4.412</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="9">
         <v>4.236</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="9">
         <v>4.276</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="9">
         <v>4.367</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="9">
         <v>4.185</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="9">
         <v>4.272</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126" s="9">
         <v>4.353</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="9">
         <v>4.191</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="9">
         <v>4.252</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="9">
         <v>4.34</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="9">
         <v>4.164</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="9">
         <v>4.236</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="9">
         <v>4.365</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128" s="9">
         <v>4.107</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="9">
         <v>4.219</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="9">
         <v>4.287</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129" s="9">
         <v>4.151</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="9">
         <v>4.217</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130" s="9">
         <v>4.33</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="9">
         <v>4.104</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="9">
         <v>4.201</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131" s="9">
         <v>4.275</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D131" s="9">
         <v>4.127</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="9">
         <v>4.193</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="9">
         <v>4.285</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="9">
         <v>4.101</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="9">
         <v>4.156</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="9">
         <v>4.271</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="9">
         <v>4.041</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="9">
         <v>4.139</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="9">
         <v>4.35</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="9">
         <v>3.928</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="9">
         <v>4.121</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="9">
         <v>4.212</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="9">
         <v>4.03</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="9">
         <v>4.073</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="9">
         <v>4.158</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="9">
         <v>3.988</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="9">
         <v>4.028</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="9">
         <v>4.163</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="9">
         <v>3.893</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="9">
         <v>3.974</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="9">
         <v>4.073</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="9">
         <v>3.875</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="9">
         <v>3.956</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="9">
         <v>4.052</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="9">
         <v>3.86</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="9">
         <v>3.916</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="9">
         <v>4.006</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="9">
         <v>3.826</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="9">
         <v>3.907</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="9">
         <v>4.016</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="9">
         <v>3.798</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="9">
         <v>3.866</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="9">
         <v>3.979</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="9">
         <v>3.753</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="9">
         <v>3.856</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="9">
         <v>3.931</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="9">
         <v>3.781</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144" s="9">
         <v>3.832</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144" s="9">
         <v>4.068</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="9">
         <v>3.596</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B145" s="7">
+      <c r="B145" s="9">
         <v>3.763</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="9">
         <v>3.854</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="9">
         <v>3.672</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B146" s="7">
+      <c r="B146" s="9">
         <v>3.739</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146" s="9">
         <v>3.831</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="9">
         <v>3.647</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147" s="9">
         <v>3.739</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="9">
         <v>3.849</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="9">
         <v>3.629</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B148" s="7">
+      <c r="B148" s="9">
         <v>3.724</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148" s="9">
         <v>3.827</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D148" s="9">
         <v>3.621</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B149" s="9">
         <v>3.695</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149" s="9">
         <v>3.769</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149" s="9">
         <v>3.621</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B150" s="7">
+      <c r="B150" s="9">
         <v>3.666</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150" s="9">
         <v>3.771</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="9">
         <v>3.561</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B151" s="7">
+      <c r="B151" s="9">
         <v>3.622</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151" s="9">
         <v>3.781</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="9">
         <v>3.463</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="9">
         <v>3.607</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152" s="9">
         <v>3.681</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="9">
         <v>3.533</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="9">
         <v>3.515</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153" s="9">
         <v>3.586</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153" s="9">
         <v>3.444</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="9">
         <v>3.484</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154" s="9">
         <v>3.564</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154" s="9">
         <v>3.404</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="9">
         <v>3.36</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155" s="9">
         <v>3.432</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D155" s="9">
         <v>3.288</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="9">
         <v>3.303</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="9">
         <v>3.414</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156" s="9">
         <v>3.192</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="9">
         <v>3.069</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157" s="9">
         <v>3.202</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157" s="9">
         <v>2.936</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="9">
         <v>2.905</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158" s="9">
         <v>3.078</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158" s="9">
         <v>2.732</v>
       </c>
     </row>
